--- a/biology/Médecine/Tour_de_taille/Tour_de_taille.xlsx
+++ b/biology/Médecine/Tour_de_taille/Tour_de_taille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tour de taille est une mesure anatomique exprimée en centimètres.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habillement
-Mesurer en passant par le nombril (en clair : la valeur maximale, sans rentrer le ventre).
-Santé
-Il se mesure à la partie la plus étroite du tronc, généralement au-dessus du nombril.
-Un tour de taille élevé est un facteur de risque cardio-vasculaire. Il quantifie de façon simple l'obésité abdominale. Le tour de taille est considéré comme augmenté quand il est supérieur à 88 cm chez la femme et 102 cm chez l'homme aux États-Unis, et supérieur à 80 cm chez la femme et 94 chez l'homme pour la France.
-Une étude canadienne menée en 2012 auprès de 1 314 enfants âgés de 2 ans ½ à 4 ans a mis très précisément en évidence l’influence du temps passé devant la TV sur l’évolution du tour de taille des enfants[1].
-</t>
+          <t>Habillement</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mesurer en passant par le nombril (en clair : la valeur maximale, sans rentrer le ventre).</t>
         </is>
       </c>
     </row>
@@ -544,10 +556,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Mesure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se mesure à la partie la plus étroite du tronc, généralement au-dessus du nombril.
+Un tour de taille élevé est un facteur de risque cardio-vasculaire. Il quantifie de façon simple l'obésité abdominale. Le tour de taille est considéré comme augmenté quand il est supérieur à 88 cm chez la femme et 102 cm chez l'homme aux États-Unis, et supérieur à 80 cm chez la femme et 94 chez l'homme pour la France.
+Une étude canadienne menée en 2012 auprès de 1 314 enfants âgés de 2 ans ½ à 4 ans a mis très précisément en évidence l’influence du temps passé devant la TV sur l’évolution du tour de taille des enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tour_de_taille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tour_de_taille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Record</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'américain Walter Hudson, l'homme le plus obèse de l'histoire, possédait le plus grand tour de taille (3,02 m), pour un poids de 544 kg.
 Cathie Jung possède le plus petit tour de taille (38,1 cm).</t>
